--- a/MiniArcade_Documentation/BOM.xlsx
+++ b/MiniArcade_Documentation/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087A385-7FAD-4341-B17F-C316F7A2BF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22038004-0D04-4FB2-A263-66B22550C981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,7 +899,7 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -917,8 +917,9 @@
     <hyperlink ref="E8" r:id="rId10" xr:uid="{F12F4F28-FC8C-42B1-B1A1-65A403BE0CA4}"/>
     <hyperlink ref="E18" r:id="rId11" xr:uid="{58D4E4B6-5AAB-42BF-818E-900508DF62D6}"/>
     <hyperlink ref="E16" r:id="rId12" xr:uid="{F601C01F-8F68-490A-B433-CFEA6E55E6E8}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/MiniArcade_Documentation/BOM.xlsx
+++ b/MiniArcade_Documentation/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22038004-0D04-4FB2-A263-66B22550C981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA16331-9D43-4375-82E3-D8385BA0D73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/MiniArcade_Documentation/BOM.xlsx
+++ b/MiniArcade_Documentation/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA16331-9D43-4375-82E3-D8385BA0D73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E905E9E9-9467-4F97-9A4D-50E704E94FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Hersteller Bez.</t>
   </si>
@@ -194,6 +194,45 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/GCT/USB4125-GF-A?qs=KUoIvG%2F9IlaIQ4zBJ6gLeA%3D%3D</t>
+  </si>
+  <si>
+    <t>Left Side Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20-7910242R </t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Harwin/M20-7910242R?qs=k41KVqW3ympOgmj181bijA%3D%3D</t>
+  </si>
+  <si>
+    <t>PinHeader_1x2_female_90°</t>
+  </si>
+  <si>
+    <t>PinHeader_1x5_female_90°</t>
+  </si>
+  <si>
+    <t>PinHeader_1x6_female_90°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20-7910542R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20-7910642R </t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Harwin/M20-7910542R?qs=k41KVqW3ymo1Rw%252BkrmwYbQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Harwin/M20-7910642R?qs=k41KVqW3ymovSPRowkWy%2Fg%3D%3D</t>
+  </si>
+  <si>
+    <t>Right Side Panel</t>
   </si>
 </sst>
 </file>
@@ -594,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,6 +940,101 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/MiniArcade_Documentation/BOM.xlsx
+++ b/MiniArcade_Documentation/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E905E9E9-9467-4F97-9A4D-50E704E94FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E0DC6-4CA1-4A19-A52F-CD9C5CEFD20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,7 +977,7 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1052,8 +1052,10 @@
     <hyperlink ref="E18" r:id="rId11" xr:uid="{58D4E4B6-5AAB-42BF-818E-900508DF62D6}"/>
     <hyperlink ref="E16" r:id="rId12" xr:uid="{F601C01F-8F68-490A-B433-CFEA6E55E6E8}"/>
     <hyperlink ref="E20" r:id="rId13" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
+    <hyperlink ref="E23" r:id="rId14" xr:uid="{FE48265F-1D29-4115-895D-BCFC9236FFE5}"/>
+    <hyperlink ref="E24" r:id="rId15" xr:uid="{80850FB4-3178-4F39-A983-7966A13D37BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/MiniArcade_Documentation/BOM.xlsx
+++ b/MiniArcade_Documentation/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E0DC6-4CA1-4A19-A52F-CD9C5CEFD20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87159641-E709-44EB-90BA-78FB2DDACA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
@@ -636,7 +636,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -960,7 +960,7 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1054,8 +1054,9 @@
     <hyperlink ref="E20" r:id="rId13" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
     <hyperlink ref="E23" r:id="rId14" xr:uid="{FE48265F-1D29-4115-895D-BCFC9236FFE5}"/>
     <hyperlink ref="E24" r:id="rId15" xr:uid="{80850FB4-3178-4F39-A983-7966A13D37BA}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{7D66C85A-1247-4A85-8BFB-47C65B656CC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/MiniArcade_Documentation/BOM.xlsx
+++ b/MiniArcade_Documentation/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87159641-E709-44EB-90BA-78FB2DDACA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A736C9D-E340-4BD6-BD68-C93CA53200B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Hersteller Bez.</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>Right Side Panel</t>
+  </si>
+  <si>
+    <t>Power LED</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>ER-TFT1.44-1</t>
+  </si>
+  <si>
+    <t>https://www.buydisplay.com/1-44-inch-tft-touch-screen-serial-spi-128x128-lcd-display-module-st7735</t>
   </si>
 </sst>
 </file>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,117 +776,117 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>0.34</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7447462022</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>0.82</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>7447462033</v>
+        <v>42</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7447462022</v>
       </c>
       <c r="C16" s="1">
         <v>0.82</v>
@@ -883,15 +895,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7447462047</v>
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>7447462033</v>
       </c>
       <c r="C17" s="1">
         <v>0.82</v>
@@ -900,163 +912,199 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7447462047</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2479</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>1.26</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>0.37</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{4ECD89C7-E239-4D37-B63C-1A17B8079D9C}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{6E6F62B1-DACD-4C81-B93F-8203DAB807DF}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{4ECD89C7-E239-4D37-B63C-1A17B8079D9C}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{6E6F62B1-DACD-4C81-B93F-8203DAB807DF}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{65DE6944-C4F4-41B0-B787-126C76A33186}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{A86C964D-302B-49DE-86E8-8B7DF73B19BC}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{FF4F4812-C631-4015-97FB-DEEB74A6A2D9}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{7ACD9203-B3BD-42B9-B64A-588D4D53BB8D}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{8507224C-5D58-4B00-8C9A-0386056CC9AA}"/>
-    <hyperlink ref="B15" r:id="rId8" location="7447462022" display="https://www.we-online.com/de/components/products/WE-TI - 7447462022" xr:uid="{8B1BD0D3-F64F-4D25-942F-32A7FA99655E}"/>
-    <hyperlink ref="B17" r:id="rId9" location="7447462047" display="https://www.we-online.com/de/components/products/WE-TI - 7447462047" xr:uid="{45A392CF-89C5-49FF-A22D-60CAAB5A3150}"/>
-    <hyperlink ref="E8" r:id="rId10" xr:uid="{F12F4F28-FC8C-42B1-B1A1-65A403BE0CA4}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{58D4E4B6-5AAB-42BF-818E-900508DF62D6}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{F601C01F-8F68-490A-B433-CFEA6E55E6E8}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{FE48265F-1D29-4115-895D-BCFC9236FFE5}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{80850FB4-3178-4F39-A983-7966A13D37BA}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{7D66C85A-1247-4A85-8BFB-47C65B656CC1}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{FF4F4812-C631-4015-97FB-DEEB74A6A2D9}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{7ACD9203-B3BD-42B9-B64A-588D4D53BB8D}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{8507224C-5D58-4B00-8C9A-0386056CC9AA}"/>
+    <hyperlink ref="B16" r:id="rId7" location="7447462022" display="https://www.we-online.com/de/components/products/WE-TI - 7447462022" xr:uid="{8B1BD0D3-F64F-4D25-942F-32A7FA99655E}"/>
+    <hyperlink ref="B18" r:id="rId8" location="7447462047" display="https://www.we-online.com/de/components/products/WE-TI - 7447462047" xr:uid="{45A392CF-89C5-49FF-A22D-60CAAB5A3150}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{F12F4F28-FC8C-42B1-B1A1-65A403BE0CA4}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{58D4E4B6-5AAB-42BF-818E-900508DF62D6}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{F601C01F-8F68-490A-B433-CFEA6E55E6E8}"/>
+    <hyperlink ref="E21" r:id="rId12" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
+    <hyperlink ref="E24" r:id="rId13" xr:uid="{FE48265F-1D29-4115-895D-BCFC9236FFE5}"/>
+    <hyperlink ref="E25" r:id="rId14" xr:uid="{80850FB4-3178-4F39-A983-7966A13D37BA}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{7D66C85A-1247-4A85-8BFB-47C65B656CC1}"/>
+    <hyperlink ref="E14" r:id="rId16" xr:uid="{A86C964D-302B-49DE-86E8-8B7DF73B19BC}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{3C410E5A-22C5-47F1-BA68-10157A003FE5}"/>
+    <hyperlink ref="E9" r:id="rId18" xr:uid="{8B90EBA0-3289-4E07-B2D7-9D0B60EA29B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>